--- a/biology/Zoologie/Amphiuridae/Amphiuridae.xlsx
+++ b/biology/Zoologie/Amphiuridae/Amphiuridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amphiuridae sont une famille d'ophiures (animaux marins ressemblant à des étoiles de mer souples).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des ophiures grêles aux bras souvent très longs, qui vivent enterrées dans le sédiment en laissant dépasser leurs bras munis de cils pour capturer le plancton[2]. Dans les environnements favorables, ces espèces souvent scissipares peuvent former des populations très denses[2]. Cette famille se reconnaît morphologiquement à ses cinq mâchoires terminées par une paire de dents à la pointe plutôt qu'un élément unique[3]. 
-Il s'agit de la plus grande famille d'ophiures, avec 467 espèces (concentrées essentiellement sur les genres Amphiura, Amphioplus et Amphiodia)[4]. Cela représente presque une ophiure sur 5 et un échinoderme actuel sur 14.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des ophiures grêles aux bras souvent très longs, qui vivent enterrées dans le sédiment en laissant dépasser leurs bras munis de cils pour capturer le plancton. Dans les environnements favorables, ces espèces souvent scissipares peuvent former des populations très denses. Cette famille se reconnaît morphologiquement à ses cinq mâchoires terminées par une paire de dents à la pointe plutôt qu'un élément unique. 
+Il s'agit de la plus grande famille d'ophiures, avec 467 espèces (concentrées essentiellement sur les genres Amphiura, Amphioplus et Amphiodia). Cela représente presque une ophiure sur 5 et un échinoderme actuel sur 14.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 mars 2015)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 mars 2015) :
 genre Acrocnida Gislén, 1926 -- 3 espèces
 genre Amphichondrius Nielsen, 1932 -- 2 espèces
 genre Amphicontus Hill, 1940 -- 1 espèce
